--- a/Bundesliga def.xlsx
+++ b/Bundesliga def.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY Projects\PythonProblems-main\CPS109Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4C887E9-D613-4A13-B5A8-079B34F16E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCFC11C-253D-49A7-A2EA-6A469DBFDC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{427B3267-9399-47EF-820A-847C0172C350}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="201">
   <si>
     <t>UID</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>Mats Hummels</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>£170K - £1.7M</t>
@@ -711,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -726,9 +723,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1067,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D335B28-CA9E-4BC7-B1C0-BA9BBBAE151C}">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="112" workbookViewId="0">
+      <selection activeCell="R68" sqref="R68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1574,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>13196616</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1864,7 +1858,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>86066853</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2006,7 +2000,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>91107360</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2128,8 +2122,8 @@
       <c r="Q15" s="3">
         <v>3.88</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>63</v>
+      <c r="R15" s="3">
+        <v>0.11</v>
       </c>
       <c r="S15" s="3">
         <v>0.28000000000000003</v>
@@ -2144,15 +2138,15 @@
         <v>6</v>
       </c>
       <c r="W15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>92088306</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>92088306</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>60</v>
@@ -2215,7 +2209,7 @@
         <v>54</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2223,10 +2217,10 @@
         <v>45092658</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>25</v>
@@ -2235,7 +2229,7 @@
         <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="3">
         <v>28</v>
@@ -2286,7 +2280,7 @@
         <v>26</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2294,19 +2288,19 @@
         <v>98033057</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="G18" s="3">
         <v>29</v>
@@ -2357,7 +2351,7 @@
         <v>59</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2365,10 +2359,10 @@
         <v>2000116422</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>25</v>
@@ -2428,7 +2422,7 @@
         <v>33</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2436,19 +2430,19 @@
         <v>24057195</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="G20" s="3">
         <v>25</v>
@@ -2499,7 +2493,7 @@
         <v>17</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2507,10 +2501,10 @@
         <v>19290884</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>25</v>
@@ -2519,7 +2513,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="3">
         <v>26</v>
@@ -2570,18 +2564,18 @@
         <v>33</v>
       </c>
       <c r="W21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>86075795</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>86075795</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>25</v>
@@ -2641,7 +2635,7 @@
         <v>44</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2649,10 +2643,10 @@
         <v>91147345</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>25</v>
@@ -2712,7 +2706,7 @@
         <v>37</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2720,19 +2714,19 @@
         <v>96102946</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="G24" s="3">
         <v>25</v>
@@ -2783,27 +2777,27 @@
         <v>31</v>
       </c>
       <c r="W24" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>16182894</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>16182894</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="G25" s="3">
         <v>27</v>
@@ -2854,7 +2848,7 @@
         <v>41</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2862,19 +2856,19 @@
         <v>37055843</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="G26" s="3">
         <v>26</v>
@@ -2925,18 +2919,18 @@
         <v>31</v>
       </c>
       <c r="W26" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>37064720</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>37064720</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>25</v>
@@ -2945,7 +2939,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G27" s="3">
         <v>25</v>
@@ -2996,7 +2990,7 @@
         <v>69</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3004,19 +2998,19 @@
         <v>89063073</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="G28" s="3">
         <v>29</v>
@@ -3067,7 +3061,7 @@
         <v>34</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3075,19 +3069,19 @@
         <v>61094579</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="G29" s="3">
         <v>22</v>
@@ -3146,10 +3140,10 @@
         <v>91132290</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>25</v>
@@ -3209,7 +3203,7 @@
         <v>33</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3217,10 +3211,10 @@
         <v>92065574</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>25</v>
@@ -3280,7 +3274,7 @@
         <v>35</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3288,10 +3282,10 @@
         <v>92027023</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>25</v>
@@ -3351,18 +3345,18 @@
         <v>23</v>
       </c>
       <c r="W32" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>2000071246</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <v>2000071246</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>25</v>
@@ -3422,7 +3416,7 @@
         <v>32</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3430,11 +3424,11 @@
         <v>19375644</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D34" s="3" t="s">
         <v>25</v>
       </c>
@@ -3442,7 +3436,7 @@
         <v>26</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="3">
         <v>23</v>
@@ -3493,7 +3487,7 @@
         <v>11</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3501,10 +3495,10 @@
         <v>92060316</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>25</v>
@@ -3564,7 +3558,7 @@
         <v>31</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3572,19 +3566,19 @@
         <v>91187772</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="G36" s="3">
         <v>25</v>
@@ -3635,7 +3629,7 @@
         <v>6</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3643,10 +3637,10 @@
         <v>92084880</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>25</v>
@@ -3706,27 +3700,27 @@
         <v>25</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>53102029</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="G38" s="3">
         <v>29</v>
@@ -3777,18 +3771,18 @@
         <v>32</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>98030084</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>25</v>
@@ -3797,7 +3791,7 @@
         <v>26</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39" s="3">
         <v>29</v>
@@ -3848,7 +3842,7 @@
         <v>35</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3856,10 +3850,10 @@
         <v>91132038</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>25</v>
@@ -3919,7 +3913,7 @@
         <v>31</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3927,10 +3921,10 @@
         <v>45112722</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>25</v>
@@ -3939,7 +3933,7 @@
         <v>26</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G41" s="3">
         <v>25</v>
@@ -3974,8 +3968,8 @@
       <c r="Q41" s="3">
         <v>4.46</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>63</v>
+      <c r="R41" s="3">
+        <v>0.12</v>
       </c>
       <c r="S41" s="3">
         <v>0.74</v>
@@ -3990,7 +3984,7 @@
         <v>5</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3998,10 +3992,10 @@
         <v>2000090631</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>25</v>
@@ -4061,7 +4055,7 @@
         <v>13</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4069,10 +4063,10 @@
         <v>2000180889</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>25</v>
@@ -4132,7 +4126,7 @@
         <v>33</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4140,19 +4134,19 @@
         <v>91011532</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="G44" s="3">
         <v>33</v>
@@ -4203,7 +4197,7 @@
         <v>26</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4211,10 +4205,10 @@
         <v>49047065</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>25</v>
@@ -4223,7 +4217,7 @@
         <v>26</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="3">
         <v>25</v>
@@ -4274,7 +4268,7 @@
         <v>51</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4282,10 +4276,10 @@
         <v>49056273</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>25</v>
@@ -4294,7 +4288,7 @@
         <v>26</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="3">
         <v>23</v>
@@ -4345,7 +4339,7 @@
         <v>24</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4353,16 +4347,16 @@
         <v>91134708</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>27</v>
@@ -4416,7 +4410,7 @@
         <v>31</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4424,10 +4418,10 @@
         <v>91107789</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>25</v>
@@ -4487,18 +4481,18 @@
         <v>30</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>90087316</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>25</v>
@@ -4558,7 +4552,7 @@
         <v>22</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4566,10 +4560,10 @@
         <v>91208024</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>25</v>
@@ -4629,7 +4623,7 @@
         <v>3</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4637,19 +4631,19 @@
         <v>16130398</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="G51" s="3">
         <v>29</v>
@@ -4700,7 +4694,7 @@
         <v>31</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4708,10 +4702,10 @@
         <v>49048381</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>25</v>
@@ -4720,7 +4714,7 @@
         <v>26</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="3">
         <v>23</v>
@@ -4771,7 +4765,7 @@
         <v>54</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4779,19 +4773,19 @@
         <v>43393176</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="G53" s="3">
         <v>24</v>
@@ -4842,7 +4836,7 @@
         <v>52</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4850,19 +4844,19 @@
         <v>70110530</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="G54" s="3">
         <v>25</v>
@@ -4913,7 +4907,7 @@
         <v>25</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4921,10 +4915,10 @@
         <v>16147693</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>25</v>
@@ -4933,7 +4927,7 @@
         <v>26</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G55" s="3">
         <v>27</v>
@@ -4984,7 +4978,7 @@
         <v>11</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4992,10 +4986,10 @@
         <v>48043092</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>25</v>
@@ -5004,7 +4998,7 @@
         <v>26</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="3">
         <v>26</v>
@@ -5055,7 +5049,7 @@
         <v>42</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5063,10 +5057,10 @@
         <v>91109389</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>25</v>
@@ -5075,7 +5069,7 @@
         <v>26</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G57" s="3">
         <v>30</v>
@@ -5126,18 +5120,18 @@
         <v>14</v>
       </c>
       <c r="W57" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>91137493</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
-        <v>91137493</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>25</v>
@@ -5146,7 +5140,7 @@
         <v>51</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G58" s="3">
         <v>29</v>
@@ -5197,7 +5191,7 @@
         <v>33</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5205,10 +5199,10 @@
         <v>48043086</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>25</v>
@@ -5268,7 +5262,7 @@
         <v>6</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5276,10 +5270,10 @@
         <v>45109024</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>25</v>
@@ -5288,7 +5282,7 @@
         <v>54</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G60" s="3">
         <v>26</v>
@@ -5339,7 +5333,7 @@
         <v>26</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5347,11 +5341,11 @@
         <v>19270959</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="D61" s="3" t="s">
         <v>25</v>
       </c>
@@ -5359,7 +5353,7 @@
         <v>26</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="3">
         <v>30</v>
@@ -5410,7 +5404,7 @@
         <v>36</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5418,10 +5412,10 @@
         <v>2000070513</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>25</v>
@@ -5481,7 +5475,7 @@
         <v>36</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5489,10 +5483,10 @@
         <v>98034469</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>25</v>
@@ -5501,7 +5495,7 @@
         <v>26</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G63" s="3">
         <v>28</v>
@@ -5552,7 +5546,7 @@
         <v>9</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5560,10 +5554,10 @@
         <v>91188907</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>25</v>
@@ -5623,7 +5617,7 @@
         <v>23</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5631,10 +5625,10 @@
         <v>62166400</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>25</v>
@@ -5643,7 +5637,7 @@
         <v>51</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G65" s="3">
         <v>27</v>
@@ -5694,7 +5688,7 @@
         <v>36</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5702,11 +5696,11 @@
         <v>43266774</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="D66" s="3" t="s">
         <v>25</v>
       </c>
@@ -5714,7 +5708,7 @@
         <v>26</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G66" s="3">
         <v>26</v>
@@ -5765,7 +5759,7 @@
         <v>36</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5773,10 +5767,10 @@
         <v>91177332</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>25</v>
@@ -5836,7 +5830,7 @@
         <v>24</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5844,10 +5838,10 @@
         <v>2000065850</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>25</v>
@@ -5891,8 +5885,8 @@
       <c r="Q68" s="3">
         <v>4.33</v>
       </c>
-      <c r="R68" s="3" t="s">
-        <v>63</v>
+      <c r="R68" s="3">
+        <v>0.21</v>
       </c>
       <c r="S68" s="3">
         <v>0</v>
@@ -5907,7 +5901,7 @@
         <v>6</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5915,19 +5909,19 @@
         <v>67279603</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="G69" s="3">
         <v>24</v>
@@ -5978,7 +5972,7 @@
         <v>5</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
